--- a/WBS/8팀_상세일정(WBS).xlsx
+++ b/WBS/8팀_상세일정(WBS).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juhyung\Desktop\4-1\캡스톤디자인\capstone_design\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4020BD00-0812-49BB-B9A5-74F960314968}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01775D-10CF-41DB-AD7F-63B7E2087490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8팀 상세일정" sheetId="4" r:id="rId1"/>
@@ -2440,7 +2440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="243">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3658,6 +3658,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3685,15 +3703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3703,23 +3712,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4041,609 +4041,609 @@
       <selection sqref="A1:R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4651,6 +4651,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4662,20 +4663,20 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="11" max="11" width="46.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4710,8 +4711,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4743,9 +4744,9 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4774,9 +4775,9 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="23"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4803,9 +4804,9 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4832,9 +4833,9 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4861,11 +4862,11 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4894,9 +4895,9 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
@@ -4923,9 +4924,9 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -4954,9 +4955,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4985,9 +4986,9 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5014,11 +5015,11 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5043,9 +5044,9 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -5066,9 +5067,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -5089,9 +5090,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
@@ -5112,9 +5113,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
@@ -5135,9 +5136,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
@@ -5158,9 +5159,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
@@ -5181,9 +5182,9 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -5206,9 +5207,9 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
@@ -5229,9 +5230,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
@@ -5252,9 +5253,9 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
@@ -5275,9 +5276,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
@@ -5298,9 +5299,9 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -5323,9 +5324,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
@@ -5346,9 +5347,9 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
@@ -5369,9 +5370,9 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
@@ -5392,9 +5393,9 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>56</v>
       </c>
@@ -5415,9 +5416,9 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -5438,9 +5439,9 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>58</v>
       </c>
@@ -5461,8 +5462,8 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="24"/>
       <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
@@ -5509,24 +5510,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1641C88-327C-764D-9A46-E5D3B13115F5}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.08203125" customWidth="1"/>
-    <col min="3" max="3" width="65.9140625" customWidth="1"/>
-    <col min="4" max="4" width="82.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="32"/>
-    <col min="6" max="6" width="10.6640625" style="33"/>
-    <col min="9" max="10" width="10.6640625" style="33"/>
-    <col min="11" max="11" width="40.08203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" customWidth="1"/>
+    <col min="3" max="3" width="65.8984375" customWidth="1"/>
+    <col min="4" max="4" width="82.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="17"/>
+    <col min="6" max="6" width="10.69921875" style="18"/>
+    <col min="9" max="10" width="10.69921875" style="18"/>
+    <col min="11" max="11" width="40.09765625" customWidth="1"/>
+    <col min="12" max="12" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5539,10 +5540,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5551,18 +5552,18 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -5574,29 +5575,29 @@
       <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="15">
         <v>44257</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="15">
         <v>44267</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="15">
         <v>44257</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="15">
         <v>44267</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5605,120 +5606,120 @@
       <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="15">
         <v>44267</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="15">
         <v>44270</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="15">
         <v>44267</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="15">
         <v>44270</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="15">
         <v>44270</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="15">
         <v>44275</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="15">
         <v>44270</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="15">
         <v>44275</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="15">
         <v>44275</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="15">
         <v>44280</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="15">
         <v>44275</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="15">
         <v>44280</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="15">
         <v>44280</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="15">
         <v>44286</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="15">
         <v>44280</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="15">
         <v>44286</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5727,78 +5728,86 @@
       <c r="D8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="16">
         <v>44270</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="15">
         <v>44289</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="16">
         <v>44270</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="15">
         <v>44289</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="15">
         <v>44289</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="15">
         <v>44298</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="15">
         <v>44289</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="15">
+        <v>44298</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="34"/>
+      <c r="J9" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
-      <c r="B10" s="28"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="15">
         <v>44298</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="15">
         <v>44301</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="15">
         <v>44298</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="34" t="s">
+      <c r="H10" s="15">
+        <v>44301</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="34"/>
+      <c r="J10" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -5808,25 +5817,25 @@
         <v>87</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="30">
+      <c r="E11" s="15">
         <v>44257</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="15">
         <v>44469</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="15">
         <v>44257</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5835,183 +5844,203 @@
       <c r="D12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="16">
         <v>44270</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="15">
         <v>44289</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="16">
         <v>44270</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="15">
         <v>44289</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="15">
         <v>44289</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="15">
         <v>44294</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="15">
         <v>44289</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="15">
         <v>44294</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="15">
         <v>44289</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="15">
         <v>44295</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="15">
         <v>44289</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="15">
         <v>44295</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="15">
         <v>44289</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="15">
         <v>44298</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="15">
         <v>44289</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="15">
+        <v>44298</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="34"/>
+      <c r="J15" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="15">
         <v>44289</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="15">
         <v>44298</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="15">
         <v>44289</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="15">
+        <v>44298</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="34"/>
+      <c r="J16" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="15">
         <v>44298</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="15">
         <v>44311</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="34" t="s">
+      <c r="G17" s="15">
+        <v>44298</v>
+      </c>
+      <c r="H17" s="15">
+        <v>44311</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="15">
         <v>44317</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="15">
         <v>44323</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="34" t="s">
+      <c r="G18" s="15">
+        <v>44317</v>
+      </c>
+      <c r="H18" s="15">
+        <v>44323</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="22" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -6020,186 +6049,206 @@
       <c r="D19" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="15">
         <v>44324</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="15">
         <v>44331</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="34" t="s">
+      <c r="G19" s="15">
+        <v>44324</v>
+      </c>
+      <c r="H19" s="15">
+        <v>44331</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="15">
         <v>44331</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="15">
         <v>44338</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="34" t="s">
+      <c r="G20" s="15">
+        <v>44331</v>
+      </c>
+      <c r="H20" s="15">
+        <v>44338</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="15">
         <v>44338</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="15">
         <v>44345</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="34" t="s">
+      <c r="G21" s="15">
+        <v>44338</v>
+      </c>
+      <c r="H21" s="15">
+        <v>44345</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="34"/>
+      <c r="J21" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="15">
         <v>44345</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="15">
         <v>44352</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="15">
+        <v>44345</v>
+      </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J22" s="34"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="15">
         <v>44352</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="15">
         <v>44367</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="15">
         <v>44367</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="15">
         <v>44374</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="34"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="15">
         <v>44324</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="15">
         <v>44374</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="34"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="15">
         <v>44374</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="15">
         <v>44382</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="34"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="25" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -6208,160 +6257,160 @@
       <c r="D27" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="15">
         <v>44382</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="15">
         <v>44392</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="34"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="15">
         <v>44392</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="15">
         <v>44397</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J28" s="34"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="15">
         <v>44397</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="15">
         <v>44408</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="15">
         <v>44408</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="15">
         <v>44423</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J30" s="34"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="15">
         <v>44423</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="15">
         <v>44428</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="34"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="15">
         <v>44423</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="15">
         <v>44428</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="34"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="15">
         <v>44428</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="15">
         <v>44459</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="34"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -6373,29 +6422,29 @@
       <c r="D34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="15">
         <v>44270</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="15">
         <v>44294</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="15">
         <v>44270</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="15">
         <v>44294</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -6404,58 +6453,58 @@
       <c r="D35" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="15">
         <v>44270</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="15">
         <v>44294</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="15">
         <v>44270</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="15">
         <v>44294</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="15">
         <v>44270</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="15">
         <v>44294</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="15">
         <v>44270</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="15">
         <v>44294</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -6464,57 +6513,62 @@
       <c r="D37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="15">
         <v>44289</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="15">
         <v>44298</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="15">
         <v>44289</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="15">
         <v>44298</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="15">
         <v>44289</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="15">
         <v>44298</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="15">
         <v>44289</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="15">
         <v>44298</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="19" t="s">
         <v>242</v>
       </c>
       <c r="K38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:B33"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B12:B18"/>
@@ -6522,11 +6576,6 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6543,20 +6592,20 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="51.9140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
+    <col min="3" max="3" width="51.8984375" style="11" customWidth="1"/>
     <col min="4" max="4" width="52" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="10.9140625" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9.9140625" customWidth="1"/>
-    <col min="11" max="11" width="46.58203125" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" customWidth="1"/>
+    <col min="11" max="11" width="46.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6591,11 +6640,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -6612,9 +6661,9 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="24"/>
-      <c r="B4" s="17"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="33"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="13" t="s">
         <v>141</v>
       </c>
@@ -6637,9 +6686,9 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="24"/>
-      <c r="B5" s="17"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="33"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="13" t="s">
         <v>147</v>
       </c>
@@ -6660,9 +6709,9 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="24"/>
-      <c r="B6" s="17"/>
+    <row r="6" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="33"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="13" t="s">
         <v>151</v>
       </c>
@@ -6683,9 +6732,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="24"/>
-      <c r="B7" s="17"/>
+    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="33"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="13" t="s">
         <v>155</v>
       </c>
@@ -6706,9 +6755,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A8" s="24"/>
-      <c r="B8" s="17"/>
+    <row r="8" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="33"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="13" t="s">
         <v>159</v>
       </c>
@@ -6729,9 +6778,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="24"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="33"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="13" t="s">
         <v>163</v>
       </c>
@@ -6752,9 +6801,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="24"/>
-      <c r="B10" s="17"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="33"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
@@ -6775,9 +6824,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="18"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="33"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
         <v>171</v>
       </c>
@@ -6798,9 +6847,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24"/>
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="33"/>
+      <c r="B12" s="22" t="s">
         <v>175</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -6825,9 +6874,9 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="13" t="s">
         <v>178</v>
       </c>
@@ -6848,9 +6897,9 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="13" t="s">
         <v>180</v>
       </c>
@@ -6871,9 +6920,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="24"/>
-      <c r="B15" s="17"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="13" t="s">
         <v>181</v>
       </c>
@@ -6894,9 +6943,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A16" s="24"/>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="13" t="s">
         <v>182</v>
       </c>
@@ -6917,9 +6966,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="24"/>
-      <c r="B17" s="17"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="13" t="s">
         <v>184</v>
       </c>
@@ -6940,9 +6989,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="17"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13" t="s">
         <v>185</v>
       </c>
@@ -6963,9 +7012,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
         <v>187</v>
       </c>
@@ -6986,9 +7035,9 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -7013,9 +7062,9 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="17"/>
+    <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="13" t="s">
         <v>192</v>
       </c>
@@ -7036,9 +7085,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A22" s="24"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A22" s="33"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="13" t="s">
         <v>194</v>
       </c>
@@ -7059,9 +7108,9 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A23" s="24"/>
-      <c r="B23" s="17"/>
+    <row r="23" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A23" s="33"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="13" t="s">
         <v>196</v>
       </c>
@@ -7082,9 +7131,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="24"/>
-      <c r="B24" s="17"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="33"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="13" t="s">
         <v>197</v>
       </c>
@@ -7105,9 +7154,9 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A25" s="24"/>
-      <c r="B25" s="17"/>
+    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="13" t="s">
         <v>199</v>
       </c>
@@ -7128,9 +7177,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A26" s="24"/>
-      <c r="B26" s="17"/>
+    <row r="26" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" s="33"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="13" t="s">
         <v>201</v>
       </c>
@@ -7152,9 +7201,9 @@
       <c r="K26" s="2"/>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:14" ht="51" x14ac:dyDescent="0.45">
-      <c r="A27" s="24"/>
-      <c r="B27" s="18"/>
+    <row r="27" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
         <v>202</v>
       </c>
@@ -7176,9 +7225,9 @@
       <c r="K27" s="2"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A28" s="24"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A28" s="33"/>
+      <c r="B28" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -7203,9 +7252,9 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A29" s="24"/>
-      <c r="B29" s="17"/>
+    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13" t="s">
         <v>206</v>
       </c>
@@ -7226,9 +7275,9 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="17"/>
+    <row r="30" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A30" s="33"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="13" t="s">
         <v>208</v>
       </c>
@@ -7249,9 +7298,9 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="17"/>
+    <row r="31" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A31" s="33"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="13" t="s">
         <v>210</v>
       </c>
@@ -7272,9 +7321,9 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="17"/>
+    <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A32" s="33"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="13" t="s">
         <v>212</v>
       </c>
@@ -7295,9 +7344,9 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="33"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13" t="s">
         <v>214</v>
       </c>
@@ -7318,9 +7367,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="17"/>
+    <row r="34" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A34" s="33"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="13" t="s">
         <v>216</v>
       </c>
@@ -7341,9 +7390,9 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A35" s="24"/>
-      <c r="B35" s="18"/>
+    <row r="35" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A35" s="33"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13" t="s">
         <v>218</v>
       </c>
@@ -7364,9 +7413,9 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="24"/>
-      <c r="B36" s="16" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="33"/>
+      <c r="B36" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -7391,9 +7440,9 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A37" s="24"/>
-      <c r="B37" s="17"/>
+    <row r="37" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="13" t="s">
         <v>222</v>
       </c>
@@ -7414,9 +7463,9 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="24"/>
-      <c r="B38" s="17"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="33"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="13" t="s">
         <v>224</v>
       </c>
@@ -7437,9 +7486,9 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A39" s="24"/>
-      <c r="B39" s="17"/>
+    <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A39" s="33"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="13" t="s">
         <v>226</v>
       </c>
@@ -7460,9 +7509,9 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="24"/>
-      <c r="B40" s="17"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="33"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="13" t="s">
         <v>228</v>
       </c>
@@ -7483,9 +7532,9 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
-      <c r="B41" s="17"/>
+    <row r="41" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="33"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="13" t="s">
         <v>230</v>
       </c>
@@ -7506,9 +7555,9 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.45">
-      <c r="A42" s="24"/>
-      <c r="B42" s="17"/>
+    <row r="42" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A42" s="33"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="13" t="s">
         <v>232</v>
       </c>
@@ -7529,9 +7578,9 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A43" s="25"/>
-      <c r="B43" s="18"/>
+    <row r="43" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A43" s="34"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="13" t="s">
         <v>234</v>
       </c>
